--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aleklyskawa/Desktop/javainet/MatrixApp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C9F87B7-4B38-C243-903E-8CA3F0F6CB6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9884E32-6D6E-F745-BEEF-B7691136109E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7580" yWindow="3140" windowWidth="28040" windowHeight="17440" xr2:uid="{63B217A0-0950-DC47-B0A9-85EAF24A695A}"/>
+    <workbookView xWindow="760" yWindow="500" windowWidth="28040" windowHeight="15700" xr2:uid="{63B217A0-0950-DC47-B0A9-85EAF24A695A}"/>
   </bookViews>
   <sheets>
     <sheet name="benchmark_results (3)" sheetId="4" r:id="rId1"/>
@@ -390,10 +390,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.15070603674540684"/>
+          <c:x val="0.11744661906175252"/>
           <c:y val="0.18138888888888888"/>
-          <c:w val="0.806071741032371"/>
-          <c:h val="0.61341061533974917"/>
+          <c:w val="0.83933114513679141"/>
+          <c:h val="0.70344279312352853"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
@@ -846,6 +846,16 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.39950067217207608"/>
+          <c:y val="0.27067524115755626"/>
+          <c:w val="0.28969045166471707"/>
+          <c:h val="5.4260829936450872E-2"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1480,15 +1490,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>412750</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>31750</xdr:rowOff>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>31750</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>184150</xdr:rowOff>
+      <xdr:colOff>800100</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1861,8 +1871,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9339A638-375B-0240-B417-99F50F06BA4B}">
   <dimension ref="B5:J49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L26" sqref="L26"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1871,6 +1881,7 @@
     <col min="2" max="2" width="14" customWidth="1"/>
     <col min="3" max="3" width="13.83203125" customWidth="1"/>
     <col min="4" max="4" width="13.6640625" customWidth="1"/>
+    <col min="6" max="6" width="3.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="5" spans="2:10" ht="34" x14ac:dyDescent="0.2">
